--- a/biology/Botanique/Paul_J._McAuley/Paul_J._McAuley.xlsx
+++ b/biology/Botanique/Paul_J._McAuley/Paul_J._McAuley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul James McAuley, né le 23 avril 1955 à Stroud en Angleterre, est un botaniste et écrivain britannique. Auteur de science-fiction maintes fois récompensé, il se définit lui-même comme accro à la science.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De par sa formation de biologiste, Paul J. McAuley écossais écrit surtout de la hard science, traitant de sujets tels les biotechnologies, les uchronies et univers parallèles, les voyages dans l'espace.
 Paul J. McAuley a commencé par écrire un space opera se déroulant dans un futur lointain : Quatre-cent milliards d'étoiles, dont Secret Harmonies et La Lumière des astres continuent d'explorer la trame.
@@ -548,25 +562,166 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Quatre cents milliards d'étoiles
-Quatre cents milliards d'étoiles, J'ai lu, 1998 ((en) Four Hundred Billion Stars, 1988), trad. Jean-Pierre Roblain  (ISBN 2-290-31505-2)Prix Philip-K.-Dick 1989
+          <t>Série Quatre cents milliards d'étoiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Quatre cents milliards d'étoiles, J'ai lu, 1998 ((en) Four Hundred Billion Stars, 1988), trad. Jean-Pierre Roblain  (ISBN 2-290-31505-2)Prix Philip-K.-Dick 1989
 (en) Secret Harmonies, 1989Paru aux États-Unis sous le titre Of the Fall
-La Lumière des astres, J'ai lu, 2000 ((en) Eternal Light, 1991), trad. Valérie Guilbaud  (ISBN 2-290-30321-6)
-Série Confluence
-(en) Child of the River, 1997
+La Lumière des astres, J'ai lu, 2000 ((en) Eternal Light, 1991), trad. Valérie Guilbaud  (ISBN 2-290-30321-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_J._McAuley</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_J._McAuley</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Confluence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Child of the River, 1997
 (en) Ancients of Days, 1998
-(en) Shrine of Stars, 1999
-Série Quiet War
-La Guerre tranquille, Bragelonne, 2010 ((en) The Quiet War, 2007), trad. Jean-Daniel Brèque  (ISBN 978-2352944362)
+(en) Shrine of Stars, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_J._McAuley</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_J._McAuley</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Quiet War</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Guerre tranquille, Bragelonne, 2010 ((en) The Quiet War, 2007), trad. Jean-Daniel Brèque  (ISBN 978-2352944362)
 (en) Gardens of the Sun, 2009
 (en) In the Mouth of the Whale, 2012
-(en) Evening’s Empires, 2013
-Série Jackaroo
-(en) Something Coming Through, 2015
+(en) Evening’s Empires, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul_J._McAuley</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_J._McAuley</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Jackaroo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Something Coming Through, 2015
 (en) Into Everywhere, 2016
-Le Choix, Le Bélial', coll. « Une heure-lumière » no 4, 2016 ((en) The Choice, 2011), trad. Gilles Goullet  (ISBN 978-2-84344-142-4)Prix Theodore-Sturgeon 2012
-Romans indépendants
-Sable rouge, Flammarion, 2000 ((en) Red Dust, 1993), trad. Nathalie Serval  (ISBN 2-290-32581-3)
+Le Choix, Le Bélial', coll. « Une heure-lumière » no 4, 2016 ((en) The Choice, 2011), trad. Gilles Goullet  (ISBN 978-2-84344-142-4)Prix Theodore-Sturgeon 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul_J._McAuley</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_J._McAuley</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sable rouge, Flammarion, 2000 ((en) Red Dust, 1993), trad. Nathalie Serval  (ISBN 2-290-32581-3)
 Les Conjurés de Florence, Denoël, coll. « Présences », 1998 ((en) Pasquale's Angel, 1994), trad. Olivier Deparis  (ISBN 2-07-030286-5)Prix Sidewise 1995 - Réédition, Gallimard, coll. « Folio SF » no 194, 2004  (ISBN 978-2-07-030286-4) (contient également La Tentation du Dr Stein)
 Féerie, J'ai lu, 1998 ((en) Fairyland, 1995), trad. Valérie Guilbaud  (ISBN 2-290-30359-3)Prix Arthur-C.-Clarke 1996 et prix John-Wood-Campbell Memorial 1997
 Une invasion martienne, Robert Laffont, coll. « Ailleurs et Demain », 2008 ((en) The Secret of Life, 2001), trad. Bernard Sigaud  (ISBN 2-221-10799-3)
@@ -577,14 +732,82 @@
 Cowboy Angels, Robert Laffont, coll. « Ailleurs et Demain », 2009 ((en) Cowboy Angels, 2007), trad. Bernard Sigaud  (ISBN 978-2-221-11044-7)
 Austral, Bragelonne, 2022 ((en) Austral, 2017), trad. Sébastien Baert  (ISBN 979-10-281-2021-4)
 (en) War of the Maps, 2020
-(en) Beyond the Burn Line, 2022
-Recueils de nouvelles
-(en) King of the Hill, 1988
+(en) Beyond the Burn Line, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paul_J._McAuley</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_J._McAuley</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) King of the Hill, 1988
 (en) The Invisible Country, 1996
 (en) Little Machines, 2005
-(en) A Very British History, 2013
-Nouvelles
-La Tentation du Dr Stein, 1999 ((en) The Temptation of Dr Stein, 1994)  (ISBN 2-207-24956-5)Parue dans l'anthologie Aventures lointaines vol. 1, puis dans Les Conjurés de Florence,  Gallimard, coll. « Folio SF » no 194 - Prix British Fantasy 1995
+(en) A Very British History, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paul_J._McAuley</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_J._McAuley</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Tentation du Dr Stein, 1999 ((en) The Temptation of Dr Stein, 1994)  (ISBN 2-207-24956-5)Parue dans l'anthologie Aventures lointaines vol. 1, puis dans Les Conjurés de Florence,  Gallimard, coll. « Folio SF » no 194 - Prix British Fantasy 1995
 (en) Making History, 2000  (ISBN 0-575-07306-3)
 Récif, 2010 ((en) Reef, 2000)Parue dans la revue Galaxies no 10
 (en) Eye of the Tiger, 2004  (ISBN 1-903-88924-3)Dans la série Doctor Who
